--- a/WHO-DATA-SETS/ExcelDataSets/20200212-sitrep-23-ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200212-sitrep-23-ncov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829CBAF0-3F16-405F-A634-AD39C2FC6F06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D50C23C-A778-4D61-A0FF-EDB56C5E7817}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1585,18 +1585,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1604,53 +1595,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1658,38 +1616,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2031,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2040,1231 +1998,1232 @@
     <col min="1" max="1" width="26.83203125" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="107.1" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="12">
         <v>5917</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="12">
         <v>33366</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="12">
         <v>11295</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="12">
         <v>1068</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="13">
         <v>11346</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="13">
         <v>1219</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="13">
         <v>135</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="14">
         <v>5737</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="14">
         <v>1131</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="14">
         <v>263</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="14">
         <v>0</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="13">
         <v>9605</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="13">
         <v>1135</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="13">
         <v>538</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="13">
         <v>8</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="14">
         <v>6899</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="14">
         <v>946</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="14">
         <v>135</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="14">
         <v>2</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="13">
         <v>6324</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="13">
         <v>889</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="13">
         <v>79</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="13">
         <v>4</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="14">
         <v>4648</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="14">
         <v>844</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="14">
         <v>155</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="14">
         <v>1</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="13">
         <v>8051</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="13">
         <v>543</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="13">
         <v>62</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="13">
         <v>0</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="14">
         <v>3102</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="14">
         <v>505</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="14">
         <v>428</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="14">
         <v>3</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="13">
         <v>10047</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="13">
         <v>497</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="13">
         <v>71</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="13">
         <v>1</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="14">
         <v>8341</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="14">
         <v>436</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="14">
         <v>432</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="14">
         <v>1</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="13">
         <v>3773</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="13">
         <v>378</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="13">
         <v>171</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="13">
         <v>8</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="14">
         <v>2154</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="14">
         <v>352</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="14">
         <v>218</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="14">
         <v>3</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="13">
         <v>2424</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="13">
         <v>306</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="13">
         <v>177</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="13">
         <v>1</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="14">
         <v>3941</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="14">
         <v>272</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="14">
         <v>74</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="14">
         <v>0</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="13">
         <v>7556</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="13">
         <v>251</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="13">
         <v>43</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="13">
         <v>2</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="14">
         <v>3864</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="14">
         <v>225</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="14">
         <v>367</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="14">
         <v>0</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="13">
         <v>4926</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="13">
         <v>222</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="13">
         <v>248</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="13">
         <v>1</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="14">
         <v>4830</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="14">
         <v>154</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="14">
         <v>89</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="14">
         <v>0</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="13">
         <v>934</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="13">
         <v>145</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="13">
         <v>206</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="13">
         <v>3</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="14">
         <v>3718</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="14">
         <v>124</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="14">
         <v>65</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="14">
         <v>0</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="13">
         <v>3600</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="13">
         <v>131</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="13">
         <v>53</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="13">
         <v>1</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="14">
         <v>4359</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="14">
         <v>111</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="14">
         <v>287</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="14">
         <v>0</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="13">
         <v>1560</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="13">
         <v>106</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="13">
         <v>328</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="13">
         <v>2</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="14">
         <v>2637</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="14">
         <v>86</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="14">
         <v>18</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="14">
         <v>2</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="13">
         <v>2704</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="13">
         <v>83</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="13">
         <v>57</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="13">
         <v>1</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="14">
         <v>2534</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="14">
         <v>60</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="14">
         <v>11</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="14">
         <v>0</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="13">
         <v>2487</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="13">
         <v>59</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="13">
         <v>31</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="13">
         <v>0</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="14">
         <v>688</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="14">
         <v>58</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="14">
         <v>31</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="14">
         <v>0</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="13">
         <v>745</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="13">
         <v>49</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="13">
         <v>0</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="13">
         <v>1</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="14">
         <v>603</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="14">
         <v>18</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="14">
         <v>0</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="14">
         <v>0</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="13">
         <v>2359</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="13">
         <v>18</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="13">
         <v>0</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="13">
         <v>0</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="14">
         <v>66</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="14">
         <v>10</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="14">
         <v>0</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="14">
         <v>0</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="13">
         <v>344</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="13">
         <v>1</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="13">
         <v>0</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="13">
         <v>0</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="15">
         <v>142823</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="15">
         <v>44730</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="15">
         <v>16067</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="15">
         <v>1114</v>
       </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" ht="107.25">
-      <c r="A37" s="14" t="s">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" ht="69.75" customHeight="1">
+      <c r="A37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="19" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15">
-      <c r="A39" s="27"/>
-      <c r="B39" s="18" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="19" t="s">
+      <c r="F39" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15">
-      <c r="A40" s="27"/>
-      <c r="B40" s="18" t="s">
+      <c r="A40" s="19"/>
+      <c r="B40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="19" t="s">
+      <c r="F40" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15">
-      <c r="A41" s="27"/>
-      <c r="B41" s="18" t="s">
+      <c r="A41" s="19"/>
+      <c r="B41" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15">
-      <c r="A42" s="27"/>
-      <c r="B42" s="18" t="s">
+      <c r="A42" s="19"/>
+      <c r="B42" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" s="19" t="s">
+      <c r="F42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15">
-      <c r="A43" s="27"/>
-      <c r="B43" s="18" t="s">
+      <c r="A43" s="19"/>
+      <c r="B43" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="19" t="s">
+      <c r="E43" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15">
-      <c r="A44" s="27"/>
-      <c r="B44" s="18" t="s">
+      <c r="A44" s="19"/>
+      <c r="B44" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" s="19" t="s">
+      <c r="F44" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15">
-      <c r="A45" s="27"/>
-      <c r="B45" s="18" t="s">
+      <c r="A45" s="19"/>
+      <c r="B45" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="19" t="s">
+      <c r="E45" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15">
-      <c r="A46" s="28"/>
-      <c r="B46" s="18" t="s">
+      <c r="A46" s="20"/>
+      <c r="B46" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E46" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="19" t="s">
+      <c r="E46" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15">
-      <c r="A48" s="30"/>
-      <c r="B48" s="18" t="s">
+      <c r="A48" s="19"/>
+      <c r="B48" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" s="19" t="s">
+      <c r="E48" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15">
-      <c r="A49" s="30"/>
-      <c r="B49" s="18" t="s">
+      <c r="A49" s="19"/>
+      <c r="B49" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G49" s="19" t="s">
+      <c r="E49" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15">
-      <c r="A50" s="31"/>
-      <c r="B50" s="18" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E50" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" s="19" t="s">
+      <c r="E50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F51" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G51" s="22" t="s">
+      <c r="F51" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15">
-      <c r="A52" s="31"/>
-      <c r="B52" s="18" t="s">
+      <c r="A52" s="20"/>
+      <c r="B52" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E52" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F52" s="19" t="s">
+      <c r="E52" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" s="19" t="s">
+      <c r="F53" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15">
-      <c r="A54" s="33"/>
-      <c r="B54" s="18" t="s">
+      <c r="A54" s="19"/>
+      <c r="B54" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F54" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G54" s="19" t="s">
+      <c r="F54" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15">
-      <c r="A55" s="33"/>
-      <c r="B55" s="18" t="s">
+      <c r="A55" s="19"/>
+      <c r="B55" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E55" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F55" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G55" s="19" t="s">
+      <c r="F55" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15">
-      <c r="A56" s="33"/>
-      <c r="B56" s="18" t="s">
+      <c r="A56" s="19"/>
+      <c r="B56" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E56" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56" s="19" t="s">
+      <c r="E56" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15">
-      <c r="A57" s="33"/>
-      <c r="B57" s="18" t="s">
+      <c r="A57" s="19"/>
+      <c r="B57" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G57" s="19" t="s">
+      <c r="E57" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15">
-      <c r="A58" s="33"/>
-      <c r="B58" s="18" t="s">
+      <c r="A58" s="19"/>
+      <c r="B58" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58" s="21" t="s">
+      <c r="D58" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58" s="19" t="s">
+      <c r="F58" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15">
-      <c r="A59" s="33"/>
-      <c r="B59" s="18" t="s">
+      <c r="A59" s="19"/>
+      <c r="B59" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E59" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59" s="19" t="s">
+      <c r="E59" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15">
-      <c r="A60" s="33"/>
-      <c r="B60" s="18" t="s">
+      <c r="A60" s="19"/>
+      <c r="B60" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E60" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" s="19" t="s">
+      <c r="E60" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15">
-      <c r="A61" s="34"/>
-      <c r="B61" s="18" t="s">
+      <c r="A61" s="20"/>
+      <c r="B61" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E61" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G61" s="19" t="s">
+      <c r="E61" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="30">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F62" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G62" s="22" t="s">
+      <c r="G62" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D63" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E63" s="22" t="s">
+      <c r="D63" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G63" s="22" t="s">
+      <c r="G63" s="8" t="s">
         <v>55</v>
       </c>
     </row>
